--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView xWindow="14340" windowWidth="14340" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="vt18_main_board" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>DCETVT18B-REV.0</t>
   </si>
@@ -250,16 +250,10 @@
     <t>R9, R14, R15</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
     <t>1K/1%</t>
   </si>
   <si>
-    <t>R3, R16, R29</t>
+    <t>R3, R16, R29, R58</t>
   </si>
   <si>
     <t>2.2K</t>
@@ -305,6 +299,9 @@
   </si>
   <si>
     <t>10K</t>
+  </si>
+  <si>
+    <t>R23, R30, R33, R35, R36, R40, R42, R49, R55, R56</t>
   </si>
   <si>
     <t>R37, R38</t>
@@ -519,7 +516,7 @@
 hedapao001</t>
   </si>
   <si>
-    <t>ublox NEO-M8N GPS模块</t>
+    <t>ublox NEO-M8M GPS模块</t>
   </si>
   <si>
     <t>U19</t>
@@ -669,10 +666,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -700,21 +697,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -722,7 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,49 +718,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,6 +742,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -806,16 +779,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,10 +809,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -852,31 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +867,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,25 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,31 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,66 +1023,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1220,18 +1217,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1246,6 +1252,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,11 +1300,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,10 +1346,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,137 +1358,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,6 +1534,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,17 +1561,38 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1868,10 +1913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2225,7 +2270,7 @@
       </c>
     </row>
     <row r="23" ht="27" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2243,7 +2288,7 @@
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
         <v>56</v>
       </c>
@@ -2259,7 +2304,7 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
@@ -2275,7 +2320,7 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
@@ -2291,7 +2336,7 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
         <v>63</v>
       </c>
@@ -2307,7 +2352,7 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="10" t="s">
         <v>66</v>
       </c>
@@ -2323,7 +2368,7 @@
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="10" t="s">
         <v>68</v>
       </c>
@@ -2339,7 +2384,7 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
@@ -2355,7 +2400,7 @@
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="10" t="s">
         <v>72</v>
       </c>
@@ -2371,7 +2416,7 @@
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
         <v>74</v>
       </c>
@@ -2387,7 +2432,7 @@
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
@@ -2403,12 +2448,12 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>79</v>
@@ -2419,12 +2464,12 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>81</v>
@@ -2435,12 +2480,12 @@
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>83</v>
@@ -2451,12 +2496,12 @@
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>85</v>
@@ -2467,12 +2512,12 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>87</v>
@@ -2483,7 +2528,7 @@
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="10" t="s">
         <v>88</v>
       </c>
@@ -2499,7 +2544,7 @@
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="10" t="s">
         <v>90</v>
       </c>
@@ -2515,7 +2560,7 @@
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="10" t="s">
         <v>92</v>
       </c>
@@ -2530,118 +2575,110 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" ht="14.25" spans="1:6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
+    <row r="42" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A44" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="17">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="C44" s="26">
+        <v>10</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E44" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="11">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="11">
         <v>2</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="11">
         <v>2</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="24"/>
+      <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="24"/>
+      <c r="B48" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10" t="s">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="11">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>10</v>
@@ -2649,47 +2686,47 @@
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C49" s="11">
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" ht="27" spans="1:6">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C50" s="11">
-        <v>9</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="9"/>
+    <row r="51" ht="27" spans="1:6">
+      <c r="A51" s="24"/>
       <c r="B51" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>111</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>10</v>
@@ -2697,587 +2734,589 @@
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="A52" s="29"/>
       <c r="B52" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="11">
-        <v>6</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C54" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C55" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="11">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="11">
+        <v>4</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="11">
-        <v>4</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" ht="27" spans="1:6">
+      <c r="A58" s="9"/>
+      <c r="B58" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" ht="27" spans="1:6">
-      <c r="A57" s="9"/>
-      <c r="B57" s="13" t="s">
+      <c r="C58" s="11">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="11">
-        <v>5</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="11">
-        <v>2</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="E58" s="10"/>
       <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="9"/>
       <c r="B59" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="11">
         <v>2</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="9"/>
       <c r="B60" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="11">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="11">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="E61" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C62" s="11">
+        <v>3</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="11">
-        <v>3</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" ht="27" spans="1:6">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="11">
-        <v>8</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="E62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" ht="27" spans="1:6">
       <c r="A63" s="9"/>
       <c r="B63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="11">
+        <v>8</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="11">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="E64" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" ht="40.5" spans="1:6">
+      <c r="A65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" ht="40.5" spans="1:6">
-      <c r="A64" s="9" t="s">
+      <c r="B65" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="11">
-        <v>3</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" ht="40.5" spans="1:6">
-      <c r="A65" s="9"/>
-      <c r="B65" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="C65" s="11">
         <v>3</v>
       </c>
       <c r="D65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:6">
+      <c r="A66" s="9"/>
+      <c r="B66" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="11">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="23" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10" t="s">
+      <c r="C67" s="11">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="11">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="E67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" ht="27" spans="1:6">
+      <c r="A68" s="9"/>
+      <c r="B68" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" ht="27" spans="1:6">
-      <c r="A67" s="9"/>
-      <c r="B67" s="13" t="s">
+      <c r="C68" s="11">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="11">
-        <v>2</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="E68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="11">
-        <v>1</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" ht="27" spans="1:6">
-      <c r="A69" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="C69" s="11">
         <v>1</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F69" s="12"/>
     </row>
-    <row r="70" ht="81" spans="1:6">
+    <row r="70" ht="27" spans="1:6">
       <c r="A70" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C70" s="11">
         <v>1</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" ht="27" spans="1:6">
-      <c r="A71" s="9"/>
-      <c r="B71" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" ht="81" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C71" s="11">
         <v>1</v>
       </c>
       <c r="D71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:6">
+      <c r="A72" s="9"/>
+      <c r="B72" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C73" s="11">
+        <v>2</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="11">
-        <v>2</v>
-      </c>
-      <c r="D72" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="15"/>
+      <c r="B74" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10" t="s">
+      <c r="C74" s="11">
+        <v>3</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="11">
-        <v>3</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="15"/>
+      <c r="B75" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10" t="s">
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="11">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="15"/>
+      <c r="B76" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="11">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="C76" s="11">
         <v>2</v>
       </c>
       <c r="D76" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:6">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="A78" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10" t="s">
+      <c r="C79" s="11">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C77" s="11">
-        <v>2</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="E79" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="24"/>
+      <c r="B80" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:6">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="17">
-        <v>1</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="C80" s="11">
         <v>1</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="9"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C81" s="11">
         <v>1</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="24"/>
+      <c r="B82" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="24"/>
+      <c r="B83" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" s="11">
-        <v>2</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="C83" s="11">
         <v>2</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="9"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C84" s="11">
         <v>2</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="A85" s="29"/>
       <c r="B85" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C85" s="11">
         <v>2</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" s="10"/>
+        <v>199</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="F85" s="12"/>
     </row>
-    <row r="86" ht="27" spans="1:6">
-      <c r="A86" s="9"/>
-      <c r="B86" s="24" t="s">
-        <v>204</v>
+    <row r="86" spans="1:6">
+      <c r="A86" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C86" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" ht="27" spans="1:6">
       <c r="A87" s="9"/>
-      <c r="B87" s="10" t="s">
-        <v>206</v>
+      <c r="B87" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="12"/>
@@ -3285,63 +3324,77 @@
     <row r="88" spans="1:6">
       <c r="A88" s="9"/>
       <c r="B88" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C88" s="11">
         <v>1</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" ht="40.5" spans="1:6">
+    <row r="89" spans="1:6">
       <c r="A89" s="9"/>
-      <c r="B89" s="13" t="s">
-        <v>210</v>
+      <c r="B89" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C89" s="11">
         <v>1</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" ht="14.25" spans="1:6">
-      <c r="A90" s="15" t="s">
+    <row r="90" ht="40.5" spans="1:6">
+      <c r="A90" s="9"/>
+      <c r="B90" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:6">
+      <c r="A91" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" s="17">
+      <c r="C91" s="18">
         <v>4</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="25"/>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="26"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="32"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A42"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A90"/>
   </mergeCells>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
